--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Digi-Key #</t>
   </si>
@@ -97,6 +97,150 @@
   </si>
   <si>
     <t>Capacitors</t>
+  </si>
+  <si>
+    <t>GRM319R71H104KA01D</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>CAP CER .1UF 50V 10% X7R 1206</t>
+  </si>
+  <si>
+    <t>490-1775-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V Y5V 1206</t>
+  </si>
+  <si>
+    <t>C3216Y5V1A106Z/0.85</t>
+  </si>
+  <si>
+    <t>TDK Corp</t>
+  </si>
+  <si>
+    <t>445-1593-1-ND</t>
+  </si>
+  <si>
+    <t>WP59EGC</t>
+  </si>
+  <si>
+    <t>Kingbright Corp</t>
+  </si>
+  <si>
+    <t>LED 5MM BI-COLOR RED/GRN DIFF</t>
+  </si>
+  <si>
+    <t>754-1471-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT22R0</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RES 22 OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT22R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K50</t>
+  </si>
+  <si>
+    <t>RES 1.5K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K50CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT36K0</t>
+  </si>
+  <si>
+    <t>RES TF 36K OHM 5% 0.25W 1206</t>
+  </si>
+  <si>
+    <t>RMCF1206JT36K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT10K0</t>
+  </si>
+  <si>
+    <t>RMCF1206JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K00</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT47K0</t>
+  </si>
+  <si>
+    <t>RMCF1206JT47K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 47K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RES 2.2K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT2K20</t>
+  </si>
+  <si>
+    <t>RMCF1206JT2K20CT-ND</t>
+  </si>
+  <si>
+    <t>RES 100K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT100KCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT100K</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1M00CT-ND</t>
+  </si>
+  <si>
+    <t>RES 1M OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1M00</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CRYSTAL 8.00 MHZ 18PF 49UA</t>
+  </si>
+  <si>
+    <t>ECS Inc</t>
+  </si>
+  <si>
+    <t>ECS-80-18-1</t>
+  </si>
+  <si>
+    <t>X100-ND </t>
+  </si>
+  <si>
+    <t>CC1206JRNP09BN18</t>
+  </si>
+  <si>
+    <t>311-1152-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CERAMIC 18PF 50V NP0 1206</t>
   </si>
 </sst>
 </file>
@@ -155,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,12 +307,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -179,14 +338,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -490,20 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,14 +693,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -627,40 +792,320 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>0.05</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>0.12</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24">
+      <c r="E39">
         <v>1.5</v>
       </c>
-      <c r="F24">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0.24</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="F41">
         <v>1</v>
       </c>
     </row>
@@ -668,18 +1113,32 @@
   <mergeCells count="4">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-9033-ND"/>
     <hyperlink ref="D6" r:id="rId2" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1491-5-ND"/>
     <hyperlink ref="D7" r:id="rId3" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-5026-1-ND"/>
     <hyperlink ref="D8" r:id="rId4" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=568-1631-1-ND"/>
-    <hyperlink ref="D24" r:id="rId5"/>
+    <hyperlink ref="D39" r:id="rId5"/>
+    <hyperlink ref="D22" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
+    <hyperlink ref="D23" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
+    <hyperlink ref="D40" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=754-1471-ND"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
+    <hyperlink ref="D14" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
+    <hyperlink ref="D15" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
+    <hyperlink ref="D17" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
+    <hyperlink ref="D18" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
+    <hyperlink ref="D19" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
+    <hyperlink ref="D41" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=X100-ND"/>
+    <hyperlink ref="D24" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Digi-Key #</t>
   </si>
@@ -241,13 +241,43 @@
   </si>
   <si>
     <t>CAP CERAMIC 18PF 50V NP0 1206</t>
+  </si>
+  <si>
+    <t>http://www.sparkfun.com/products/97</t>
+  </si>
+  <si>
+    <t>Miniature Single Pole Single Throw switches. These are high quality Omron type B3F momentary on switches. </t>
+  </si>
+  <si>
+    <t>COM-00097</t>
+  </si>
+  <si>
+    <t>RMCF1206FT169R</t>
+  </si>
+  <si>
+    <t>RES TF 169 OHM 1% 0.25W 1206</t>
+  </si>
+  <si>
+    <t>RMCF1206FT169RCT-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER 2.54MM 20POS GOLD</t>
+  </si>
+  <si>
+    <t>S9172-ND</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>SBH11-PBPC-D10-ST-BK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +320,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A4A44"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF77776E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -327,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -338,6 +381,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -347,12 +396,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +711,7 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
@@ -693,14 +738,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -783,14 +828,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -869,7 +914,7 @@
         <v>0.05</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -949,7 +994,7 @@
         <v>0.05</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -972,85 +1017,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>0.06</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.12</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1106,6 +1171,43 @@
         <v>0.4</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>0.35</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43">
+        <v>0.45</v>
+      </c>
+      <c r="F43">
         <v>1</v>
       </c>
     </row>
@@ -1114,7 +1216,7 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-9033-ND"/>
@@ -1122,8 +1224,8 @@
     <hyperlink ref="D7" r:id="rId3" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-5026-1-ND"/>
     <hyperlink ref="D8" r:id="rId4" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=568-1631-1-ND"/>
     <hyperlink ref="D39" r:id="rId5"/>
-    <hyperlink ref="D22" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
-    <hyperlink ref="D23" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
+    <hyperlink ref="D23" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
+    <hyperlink ref="D24" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
     <hyperlink ref="D40" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=754-1471-ND"/>
     <hyperlink ref="D11" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
     <hyperlink ref="D12" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
@@ -1135,10 +1237,13 @@
     <hyperlink ref="D18" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
     <hyperlink ref="D19" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
     <hyperlink ref="D41" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=X100-ND"/>
-    <hyperlink ref="D24" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
+    <hyperlink ref="D25" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
+    <hyperlink ref="D42" r:id="rId20"/>
+    <hyperlink ref="D20" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206FT169RCT-ND"/>
+    <hyperlink ref="D43" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=S9172-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -277,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +334,27 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -350,27 +372,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,12 +388,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -396,8 +399,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,22 +1022,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="12">
         <v>0.06</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1057,7 +1061,7 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E23">
@@ -1094,7 +1098,7 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1175,10 +1179,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="5" t="s">

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -46,15 +45,6 @@
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>LD1117V33</t>
-  </si>
-  <si>
-    <t>IC REG LDO 3.3V 950MA TO220</t>
-  </si>
-  <si>
-    <t>497-1491-5-ND</t>
-  </si>
-  <si>
     <t>USBLC6-2P6</t>
   </si>
   <si>
@@ -253,15 +243,6 @@
     <t>COM-00097</t>
   </si>
   <si>
-    <t>RMCF1206FT169R</t>
-  </si>
-  <si>
-    <t>RES TF 169 OHM 1% 0.25W 1206</t>
-  </si>
-  <si>
-    <t>RMCF1206FT169RCT-ND</t>
-  </si>
-  <si>
     <t>CONN HEADER 2.54MM 20POS GOLD</t>
   </si>
   <si>
@@ -272,13 +253,31 @@
   </si>
   <si>
     <t>SBH11-PBPC-D10-ST-BK</t>
+  </si>
+  <si>
+    <t>497-1241-1-ND</t>
+  </si>
+  <si>
+    <t>IC REG LDO 3.3V 950MA SOT-223</t>
+  </si>
+  <si>
+    <t>LD1117S33CTR</t>
+  </si>
+  <si>
+    <t>RMCF1206JT330RCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT330R</t>
+  </si>
+  <si>
+    <t>RES 330 OHM 1/4W 5% 1206 SMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,21 +335,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,9 +383,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -706,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,12 +720,12 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -773,19 +755,19 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -793,16 +775,16 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -813,16 +795,16 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E8">
         <v>0.33</v>
@@ -833,7 +815,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -843,16 +825,16 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -863,16 +845,16 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -883,16 +865,16 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>0.05</v>
@@ -903,16 +885,16 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.05</v>
@@ -923,16 +905,16 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0.05</v>
@@ -943,16 +925,16 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0.05</v>
@@ -963,16 +945,16 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0.05</v>
@@ -983,16 +965,16 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0.05</v>
@@ -1003,16 +985,16 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0.05</v>
@@ -1022,28 +1004,28 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2</v>
+      <c r="A20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1053,16 +1035,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E23">
         <v>0.10100000000000001</v>
@@ -1073,16 +1055,16 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E24">
         <v>0.16500000000000001</v>
@@ -1093,16 +1075,16 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0.12</v>
@@ -1113,7 +1095,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1123,13 +1105,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>1.5</v>
@@ -1140,16 +1122,16 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E40">
         <v>0.24</v>
@@ -1160,16 +1142,16 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E41">
         <v>0.4</v>
@@ -1180,13 +1162,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E42">
         <v>0.35</v>
@@ -1197,16 +1179,16 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E43">
         <v>0.45</v>
@@ -1224,27 +1206,27 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-9033-ND"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1491-5-ND"/>
-    <hyperlink ref="D7" r:id="rId3" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-5026-1-ND"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=568-1631-1-ND"/>
-    <hyperlink ref="D39" r:id="rId5"/>
-    <hyperlink ref="D23" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
-    <hyperlink ref="D24" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
-    <hyperlink ref="D40" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=754-1471-ND"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
-    <hyperlink ref="D12" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
-    <hyperlink ref="D13" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
-    <hyperlink ref="D14" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
-    <hyperlink ref="D15" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
-    <hyperlink ref="D17" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
-    <hyperlink ref="D18" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
-    <hyperlink ref="D19" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
-    <hyperlink ref="D41" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=X100-ND"/>
-    <hyperlink ref="D25" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
-    <hyperlink ref="D42" r:id="rId20"/>
-    <hyperlink ref="D20" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206FT169RCT-ND"/>
-    <hyperlink ref="D43" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=S9172-ND"/>
+    <hyperlink ref="D7" r:id="rId2" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-5026-1-ND"/>
+    <hyperlink ref="D8" r:id="rId3" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=568-1631-1-ND"/>
+    <hyperlink ref="D39" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
+    <hyperlink ref="D24" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
+    <hyperlink ref="D40" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=754-1471-ND"/>
+    <hyperlink ref="D11" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
+    <hyperlink ref="D12" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
+    <hyperlink ref="D13" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
+    <hyperlink ref="D14" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
+    <hyperlink ref="D15" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
+    <hyperlink ref="D16" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
+    <hyperlink ref="D17" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
+    <hyperlink ref="D18" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
+    <hyperlink ref="D19" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
+    <hyperlink ref="D41" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=X100-ND"/>
+    <hyperlink ref="D25" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
+    <hyperlink ref="D42" r:id="rId19"/>
+    <hyperlink ref="D43" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=S9172-ND"/>
+    <hyperlink ref="D6" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
+    <hyperlink ref="D20" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Digi-Key #</t>
   </si>
@@ -114,18 +114,6 @@
     <t>445-1593-1-ND</t>
   </si>
   <si>
-    <t>WP59EGC</t>
-  </si>
-  <si>
-    <t>Kingbright Corp</t>
-  </si>
-  <si>
-    <t>LED 5MM BI-COLOR RED/GRN DIFF</t>
-  </si>
-  <si>
-    <t>754-1471-ND</t>
-  </si>
-  <si>
     <t>RMCF1206JT22R0</t>
   </si>
   <si>
@@ -213,18 +201,6 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>CRYSTAL 8.00 MHZ 18PF 49UA</t>
-  </si>
-  <si>
-    <t>ECS Inc</t>
-  </si>
-  <si>
-    <t>ECS-80-18-1</t>
-  </si>
-  <si>
-    <t>X100-ND </t>
-  </si>
-  <si>
     <t>CC1206JRNP09BN18</t>
   </si>
   <si>
@@ -243,18 +219,6 @@
     <t>COM-00097</t>
   </si>
   <si>
-    <t>CONN HEADER 2.54MM 20POS GOLD</t>
-  </si>
-  <si>
-    <t>S9172-ND</t>
-  </si>
-  <si>
-    <t>Sullins Connector Solutions</t>
-  </si>
-  <si>
-    <t>SBH11-PBPC-D10-ST-BK</t>
-  </si>
-  <si>
     <t>497-1241-1-ND</t>
   </si>
   <si>
@@ -271,6 +235,30 @@
   </si>
   <si>
     <t>RES 330 OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>CRYSTAL 8.000 MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>Abracon Corporation</t>
+  </si>
+  <si>
+    <t>ABLS-8.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>535-10212-1-ND</t>
+  </si>
+  <si>
+    <t>475-2526-1-ND</t>
+  </si>
+  <si>
+    <t>LSY T676-P2R1-1-0+Q2S1-35</t>
+  </si>
+  <si>
+    <t>OSRAM Opto Semiconductors Inc</t>
+  </si>
+  <si>
+    <t>LED TOPLED 633/587 RED/YLW 4PLCC</t>
   </si>
 </sst>
 </file>
@@ -688,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,16 +743,16 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>0.74</v>
@@ -825,16 +813,16 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -845,16 +833,16 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -865,16 +853,16 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0.05</v>
@@ -885,16 +873,16 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0.05</v>
@@ -905,16 +893,16 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0.05</v>
@@ -925,16 +913,16 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0.05</v>
@@ -945,16 +933,16 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0.05</v>
@@ -965,16 +953,16 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0.05</v>
@@ -985,16 +973,16 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>0.05</v>
@@ -1005,16 +993,16 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E20" s="11">
         <v>0.05</v>
@@ -1075,16 +1063,16 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>0.12</v>
@@ -1122,19 +1110,19 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E40">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1142,19 +1130,19 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E41">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1162,13 +1150,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>0.35</v>
@@ -1178,24 +1166,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43">
-        <v>0.45</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1211,25 +1185,24 @@
     <hyperlink ref="D39" r:id="rId4"/>
     <hyperlink ref="D23" r:id="rId5" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
     <hyperlink ref="D24" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
-    <hyperlink ref="D40" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=754-1471-ND"/>
-    <hyperlink ref="D11" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
-    <hyperlink ref="D12" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
-    <hyperlink ref="D13" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
-    <hyperlink ref="D14" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
-    <hyperlink ref="D15" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
-    <hyperlink ref="D16" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
-    <hyperlink ref="D17" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
-    <hyperlink ref="D18" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
-    <hyperlink ref="D41" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=X100-ND"/>
-    <hyperlink ref="D25" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
-    <hyperlink ref="D42" r:id="rId19"/>
-    <hyperlink ref="D43" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=S9172-ND"/>
-    <hyperlink ref="D6" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
-    <hyperlink ref="D20" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
+    <hyperlink ref="D11" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
+    <hyperlink ref="D12" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
+    <hyperlink ref="D13" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
+    <hyperlink ref="D14" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
+    <hyperlink ref="D15" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
+    <hyperlink ref="D16" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
+    <hyperlink ref="D17" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
+    <hyperlink ref="D18" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
+    <hyperlink ref="D19" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
+    <hyperlink ref="D25" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
+    <hyperlink ref="D42" r:id="rId17"/>
+    <hyperlink ref="D6" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
+    <hyperlink ref="D20" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
+    <hyperlink ref="D41" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=535-10212-1-ND"/>
+    <hyperlink ref="D40" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=475-2526-1-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>Digi-Key #</t>
   </si>
@@ -189,15 +189,6 @@
     <t>RMCF1206JT100K</t>
   </si>
   <si>
-    <t>RMCF1206JT1M00CT-ND</t>
-  </si>
-  <si>
-    <t>RES 1M OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT1M00</t>
-  </si>
-  <si>
     <t>Yageo</t>
   </si>
   <si>
@@ -259,6 +250,33 @@
   </si>
   <si>
     <t>LED TOPLED 633/587 RED/YLW 4PLCC</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CAP CERAMIC 47PF 50V NP0 1206</t>
+  </si>
+  <si>
+    <t>CC1206JRNP09BN470</t>
+  </si>
+  <si>
+    <t>311-1158-1-ND</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>P1.0MECT-ND</t>
+  </si>
+  <si>
+    <t>RES 1.0M OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>Panasonic - ECG</t>
+  </si>
+  <si>
+    <t>ERJ-8GEYJ105V</t>
   </si>
 </sst>
 </file>
@@ -362,6 +380,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -371,7 +390,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,6 +403,215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6544908774017165E-2"/>
+          <c:y val="3.4645267076306031E-2"/>
+          <c:w val="0.8803520947094956"/>
+          <c:h val="0.92193630215310451"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="73409024"/>
+        <c:axId val="88038144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73409024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88038144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88038144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73409024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +912,14 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,18 +938,24 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="G2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -735,33 +969,47 @@
         <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>11.2</v>
+        <v>10.18</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f>E5*G5</f>
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H32" si="0">E6*G6</f>
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -775,13 +1023,20 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -795,23 +1050,30 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>0.33</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -825,13 +1087,20 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -845,13 +1114,20 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -865,13 +1141,20 @@
         <v>41</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -885,13 +1168,20 @@
         <v>44</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -905,13 +1195,20 @@
         <v>47</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -925,13 +1222,20 @@
         <v>49</v>
       </c>
       <c r="E16">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -945,13 +1249,20 @@
         <v>53</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
@@ -965,63 +1276,84 @@
         <v>55</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1035,13 +1367,20 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>0.10100000000000001</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1060,19 +1399,26 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.12</v>
@@ -1080,92 +1426,160 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E39">
-        <v>1.5</v>
-      </c>
-      <c r="F39">
+      <c r="E29">
+        <v>1.35</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E40">
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
         <v>0.37</v>
       </c>
-      <c r="F40">
+      <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41">
+      <c r="E31">
         <v>0.41</v>
       </c>
-      <c r="F41">
+      <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42">
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
         <v>0.35</v>
       </c>
-      <c r="F42">
+      <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>SUM(H5:H32)</f>
+        <v>150.56000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1175,14 +1589,14 @@
   <mergeCells count="4">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A28:F28"/>
     <mergeCell ref="A22:F22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-9033-ND"/>
     <hyperlink ref="D7" r:id="rId2" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-5026-1-ND"/>
     <hyperlink ref="D8" r:id="rId3" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=568-1631-1-ND"/>
-    <hyperlink ref="D39" r:id="rId4"/>
+    <hyperlink ref="D29" r:id="rId4"/>
     <hyperlink ref="D23" r:id="rId5" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
     <hyperlink ref="D24" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
     <hyperlink ref="D11" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
@@ -1193,16 +1607,18 @@
     <hyperlink ref="D16" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
     <hyperlink ref="D17" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
     <hyperlink ref="D18" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
-    <hyperlink ref="D19" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1M00CT-ND"/>
-    <hyperlink ref="D25" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
-    <hyperlink ref="D42" r:id="rId17"/>
-    <hyperlink ref="D6" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
-    <hyperlink ref="D20" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
-    <hyperlink ref="D41" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=535-10212-1-ND"/>
-    <hyperlink ref="D40" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=475-2526-1-ND"/>
+    <hyperlink ref="D25" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
+    <hyperlink ref="D32" r:id="rId16"/>
+    <hyperlink ref="D6" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
+    <hyperlink ref="D20" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
+    <hyperlink ref="D31" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=535-10212-1-ND"/>
+    <hyperlink ref="D30" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=475-2526-1-ND"/>
+    <hyperlink ref="D26" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1158-1-ND"/>
+    <hyperlink ref="D19" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P1.0MECT-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Digi-Key #</t>
   </si>
@@ -102,181 +102,193 @@
     <t>490-1775-1-ND</t>
   </si>
   <si>
+    <t>RMCF1206JT22R0</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RES 22 OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT22R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K50</t>
+  </si>
+  <si>
+    <t>RES 1.5K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K50CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT36K0</t>
+  </si>
+  <si>
+    <t>RES TF 36K OHM 5% 0.25W 1206</t>
+  </si>
+  <si>
+    <t>RMCF1206JT36K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT10K0</t>
+  </si>
+  <si>
+    <t>RMCF1206JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K00</t>
+  </si>
+  <si>
+    <t>RMCF1206JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT47K0</t>
+  </si>
+  <si>
+    <t>RMCF1206JT47K0CT-ND</t>
+  </si>
+  <si>
+    <t>RES 47K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RES 2.2K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT2K20</t>
+  </si>
+  <si>
+    <t>RMCF1206JT2K20CT-ND</t>
+  </si>
+  <si>
+    <t>RES 100K OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>RMCF1206JT100KCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT100K</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC1206JRNP09BN18</t>
+  </si>
+  <si>
+    <t>311-1152-1-ND</t>
+  </si>
+  <si>
+    <t>CAP CERAMIC 18PF 50V NP0 1206</t>
+  </si>
+  <si>
+    <t>http://www.sparkfun.com/products/97</t>
+  </si>
+  <si>
+    <t>Miniature Single Pole Single Throw switches. These are high quality Omron type B3F momentary on switches. </t>
+  </si>
+  <si>
+    <t>COM-00097</t>
+  </si>
+  <si>
+    <t>497-1241-1-ND</t>
+  </si>
+  <si>
+    <t>IC REG LDO 3.3V 950MA SOT-223</t>
+  </si>
+  <si>
+    <t>LD1117S33CTR</t>
+  </si>
+  <si>
+    <t>RMCF1206JT330RCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206JT330R</t>
+  </si>
+  <si>
+    <t>RES 330 OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>CRYSTAL 8.000 MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>Abracon Corporation</t>
+  </si>
+  <si>
+    <t>ABLS-8.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>535-10212-1-ND</t>
+  </si>
+  <si>
+    <t>475-2526-1-ND</t>
+  </si>
+  <si>
+    <t>LSY T676-P2R1-1-0+Q2S1-35</t>
+  </si>
+  <si>
+    <t>OSRAM Opto Semiconductors Inc</t>
+  </si>
+  <si>
+    <t>LED TOPLED 633/587 RED/YLW 4PLCC</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CAP CERAMIC 47PF 50V NP0 1206</t>
+  </si>
+  <si>
+    <t>CC1206JRNP09BN470</t>
+  </si>
+  <si>
+    <t>311-1158-1-ND</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>P1.0MECT-ND</t>
+  </si>
+  <si>
+    <t>RES 1.0M OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>Panasonic - ECG</t>
+  </si>
+  <si>
+    <t>ERJ-8GEYJ105V</t>
+  </si>
+  <si>
+    <t>Laird-Signal Integrity Products</t>
+  </si>
+  <si>
+    <t>LI1206H151R-10</t>
+  </si>
+  <si>
+    <t>FERRITE CHIP SIGNAL 150 OHM SMD</t>
+  </si>
+  <si>
+    <t>240-2402-1-ND</t>
+  </si>
+  <si>
+    <t>C3216Y5V1A106Z/0.85</t>
+  </si>
+  <si>
+    <t>TDK Corp</t>
+  </si>
+  <si>
     <t>CAP CER 10UF 10V Y5V 1206</t>
   </si>
   <si>
-    <t>C3216Y5V1A106Z/0.85</t>
-  </si>
-  <si>
-    <t>TDK Corp</t>
-  </si>
-  <si>
     <t>445-1593-1-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206JT22R0</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics Inc</t>
-  </si>
-  <si>
-    <t>RES 22 OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT22R0CT-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206JT1K50</t>
-  </si>
-  <si>
-    <t>RES 1.5K OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT1K50CT-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206JT36K0</t>
-  </si>
-  <si>
-    <t>RES TF 36K OHM 5% 0.25W 1206</t>
-  </si>
-  <si>
-    <t>RMCF1206JT36K0CT-ND</t>
-  </si>
-  <si>
-    <t>RES 10K OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT10K0</t>
-  </si>
-  <si>
-    <t>RMCF1206JT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>RES 1K OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT1K00</t>
-  </si>
-  <si>
-    <t>RMCF1206JT1K00CT-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206JT47K0</t>
-  </si>
-  <si>
-    <t>RMCF1206JT47K0CT-ND</t>
-  </si>
-  <si>
-    <t>RES 47K OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RES 2.2K OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT2K20</t>
-  </si>
-  <si>
-    <t>RMCF1206JT2K20CT-ND</t>
-  </si>
-  <si>
-    <t>RES 100K OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>RMCF1206JT100KCT-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206JT100K</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>CC1206JRNP09BN18</t>
-  </si>
-  <si>
-    <t>311-1152-1-ND</t>
-  </si>
-  <si>
-    <t>CAP CERAMIC 18PF 50V NP0 1206</t>
-  </si>
-  <si>
-    <t>http://www.sparkfun.com/products/97</t>
-  </si>
-  <si>
-    <t>Miniature Single Pole Single Throw switches. These are high quality Omron type B3F momentary on switches. </t>
-  </si>
-  <si>
-    <t>COM-00097</t>
-  </si>
-  <si>
-    <t>497-1241-1-ND</t>
-  </si>
-  <si>
-    <t>IC REG LDO 3.3V 950MA SOT-223</t>
-  </si>
-  <si>
-    <t>LD1117S33CTR</t>
-  </si>
-  <si>
-    <t>RMCF1206JT330RCT-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206JT330R</t>
-  </si>
-  <si>
-    <t>RES 330 OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>CRYSTAL 8.000 MHZ 18PF SMD</t>
-  </si>
-  <si>
-    <t>Abracon Corporation</t>
-  </si>
-  <si>
-    <t>ABLS-8.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>535-10212-1-ND</t>
-  </si>
-  <si>
-    <t>475-2526-1-ND</t>
-  </si>
-  <si>
-    <t>LSY T676-P2R1-1-0+Q2S1-35</t>
-  </si>
-  <si>
-    <t>OSRAM Opto Semiconductors Inc</t>
-  </si>
-  <si>
-    <t>LED TOPLED 633/587 RED/YLW 4PLCC</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>CAP CERAMIC 47PF 50V NP0 1206</t>
-  </si>
-  <si>
-    <t>CC1206JRNP09BN470</t>
-  </si>
-  <si>
-    <t>311-1158-1-ND</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>P1.0MECT-ND</t>
-  </si>
-  <si>
-    <t>RES 1.0M OHM 1/4W 5% 1206 SMD</t>
-  </si>
-  <si>
-    <t>Panasonic - ECG</t>
-  </si>
-  <si>
-    <t>ERJ-8GEYJ105V</t>
   </si>
 </sst>
 </file>
@@ -525,11 +537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="73409024"/>
-        <c:axId val="88038144"/>
+        <c:axId val="105245696"/>
+        <c:axId val="105081088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73409024"/>
+        <c:axId val="105245696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88038144"/>
+        <c:crossAx val="105081088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88038144"/>
+        <c:axId val="105081088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73409024"/>
+        <c:crossAx val="105245696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,16 +996,16 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0.59</v>
@@ -1005,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H32" si="0">E6*G6</f>
+        <f t="shared" ref="H6:H33" si="0">E6*G6</f>
         <v>5.8999999999999995</v>
       </c>
     </row>
@@ -1075,16 +1087,16 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>3.4000000000000002E-2</v>
@@ -1102,16 +1114,16 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>3.4000000000000002E-2</v>
@@ -1129,16 +1141,16 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>3.4000000000000002E-2</v>
@@ -1156,16 +1168,16 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>3.4000000000000002E-2</v>
@@ -1183,16 +1195,16 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>3.4000000000000002E-2</v>
@@ -1210,16 +1222,16 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>3.4000000000000002E-2</v>
@@ -1237,16 +1249,16 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>3.4000000000000002E-2</v>
@@ -1264,16 +1276,16 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>3.4000000000000002E-2</v>
@@ -1291,16 +1303,16 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>0.06</v>
@@ -1318,16 +1330,16 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="8">
         <v>3.4000000000000002E-2</v>
@@ -1370,7 +1382,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>50</v>
@@ -1382,16 +1394,16 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>0.16500000000000001</v>
@@ -1409,16 +1421,16 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0.12</v>
@@ -1436,16 +1448,16 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>0.11799999999999999</v>
@@ -1497,16 +1509,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>0.37</v>
@@ -1524,16 +1536,16 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0.41</v>
@@ -1551,13 +1563,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>0.35</v>
@@ -1573,10 +1585,31 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <v>0.09</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
       <c r="H33">
-        <f>SUM(H5:H32)</f>
-        <v>150.56000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1598,27 +1631,28 @@
     <hyperlink ref="D8" r:id="rId3" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=568-1631-1-ND"/>
     <hyperlink ref="D29" r:id="rId4"/>
     <hyperlink ref="D23" r:id="rId5" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1775-1-ND"/>
-    <hyperlink ref="D24" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
-    <hyperlink ref="D11" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
-    <hyperlink ref="D12" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
-    <hyperlink ref="D13" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
-    <hyperlink ref="D14" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
-    <hyperlink ref="D15" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
-    <hyperlink ref="D16" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
-    <hyperlink ref="D17" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
-    <hyperlink ref="D18" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
-    <hyperlink ref="D25" r:id="rId15" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
-    <hyperlink ref="D32" r:id="rId16"/>
-    <hyperlink ref="D6" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
-    <hyperlink ref="D20" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
-    <hyperlink ref="D31" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=535-10212-1-ND"/>
-    <hyperlink ref="D30" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=475-2526-1-ND"/>
-    <hyperlink ref="D26" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1158-1-ND"/>
-    <hyperlink ref="D19" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P1.0MECT-ND"/>
+    <hyperlink ref="D11" r:id="rId6" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT22R0CT-ND"/>
+    <hyperlink ref="D12" r:id="rId7" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K50CT-ND"/>
+    <hyperlink ref="D13" r:id="rId8" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT36K0CT-ND"/>
+    <hyperlink ref="D14" r:id="rId9" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT10K0CT-ND"/>
+    <hyperlink ref="D15" r:id="rId10" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT1K00CT-ND"/>
+    <hyperlink ref="D16" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT47K0CT-ND"/>
+    <hyperlink ref="D17" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT2K20CT-ND"/>
+    <hyperlink ref="D18" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT100KCT-ND"/>
+    <hyperlink ref="D25" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1152-1-ND"/>
+    <hyperlink ref="D32" r:id="rId15"/>
+    <hyperlink ref="D6" r:id="rId16" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=497-1241-1-ND"/>
+    <hyperlink ref="D20" r:id="rId17" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=RMCF1206JT330RCT-ND"/>
+    <hyperlink ref="D31" r:id="rId18" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=535-10212-1-ND"/>
+    <hyperlink ref="D30" r:id="rId19" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=475-2526-1-ND"/>
+    <hyperlink ref="D26" r:id="rId20" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=311-1158-1-ND"/>
+    <hyperlink ref="D19" r:id="rId21" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P1.0MECT-ND"/>
+    <hyperlink ref="D33" r:id="rId22" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=240-2402-1-ND"/>
+    <hyperlink ref="D24" r:id="rId23" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-1593-1-ND"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
-  <drawing r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 

--- a/pcb/Bill Of Parts.xlsx
+++ b/pcb/Bill Of Parts.xlsx
@@ -537,11 +537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105245696"/>
-        <c:axId val="105081088"/>
+        <c:axId val="98010112"/>
+        <c:axId val="70599808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105245696"/>
+        <c:axId val="98010112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105081088"/>
+        <c:crossAx val="70599808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105081088"/>
+        <c:axId val="70599808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105245696"/>
+        <c:crossAx val="98010112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1409,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>10</v>
